--- a/DATA/windy_db.xlsx
+++ b/DATA/windy_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="68">
   <si>
     <t>time</t>
   </si>
@@ -67,18 +67,27 @@
     <t>23°</t>
   </si>
   <si>
+    <t>24°</t>
+  </si>
+  <si>
+    <t>25°</t>
+  </si>
+  <si>
+    <t>26°</t>
+  </si>
+  <si>
+    <t>27°</t>
+  </si>
+  <si>
+    <t>28°</t>
+  </si>
+  <si>
+    <t>29°</t>
+  </si>
+  <si>
     <t>22°</t>
   </si>
   <si>
-    <t>25°</t>
-  </si>
-  <si>
-    <t>27°</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
     <t>30°</t>
   </si>
   <si>
@@ -88,15 +97,6 @@
     <t>32°</t>
   </si>
   <si>
-    <t>29°</t>
-  </si>
-  <si>
-    <t>26°</t>
-  </si>
-  <si>
-    <t>24°</t>
-  </si>
-  <si>
     <t>33°</t>
   </si>
   <si>
@@ -109,94 +109,112 @@
     <t>36°</t>
   </si>
   <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
     <t>1.5</t>
   </si>
   <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>21°</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>0.6</t>
   </si>
   <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>20°</t>
+  </si>
+  <si>
+    <t>19°</t>
+  </si>
+  <si>
+    <t>18°</t>
+  </si>
+  <si>
+    <t>17°</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
     <t>0.7</t>
   </si>
   <si>
-    <t>19°</t>
-  </si>
-  <si>
-    <t>18°</t>
-  </si>
-  <si>
-    <t>21°</t>
-  </si>
-  <si>
-    <t>20°</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>2.1</t>
+    <t>1.7</t>
   </si>
   <si>
     <t>1.1</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
   <si>
     <t>9</t>
@@ -619,5170 +637,5134 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2">
-        <v>45379</v>
+        <v>45380</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
-        <v>45379.04166666666</v>
+        <v>45380.04166666666</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
-        <v>45379.08333333334</v>
+        <v>45380.08333333334</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
-        <v>45379.125</v>
+        <v>45380.125</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
-        <v>45379.16666666666</v>
+        <v>45380.16666666666</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
-        <v>45379.20833333334</v>
+        <v>45380.20833333334</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
-        <v>45379.25</v>
+        <v>45380.25</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
-        <v>45379.29166666666</v>
+        <v>45380.29166666666</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2">
-        <v>45379.33333333334</v>
+        <v>45380.33333333334</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2">
-        <v>45379.375</v>
+        <v>45380.375</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
-        <v>45379.41666666666</v>
+        <v>45380.41666666666</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2">
-        <v>45379.45833333334</v>
+        <v>45380.45833333334</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2">
-        <v>45379.5</v>
+        <v>45380.5</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
       </c>
       <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="N14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" t="s">
-        <v>44</v>
-      </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2">
-        <v>45379.54166666666</v>
+        <v>45380.54166666666</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2">
-        <v>45379.58333333334</v>
+        <v>45380.58333333334</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
-        <v>45379.625</v>
+        <v>45380.625</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" t="s">
         <v>43</v>
       </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" t="s">
-        <v>41</v>
-      </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="2">
-        <v>45379.66666666666</v>
+        <v>45380.66666666666</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2">
-        <v>45379.70833333334</v>
+        <v>45380.70833333334</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2">
-        <v>45379.75</v>
+        <v>45380.75</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2">
-        <v>45379.79166666666</v>
+        <v>45380.79166666666</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
         <v>43</v>
       </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="2">
-        <v>45379.83333333334</v>
+        <v>45380.83333333334</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2">
-        <v>45379.875</v>
+        <v>45380.875</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" t="s">
         <v>43</v>
       </c>
-      <c r="L23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" t="s">
-        <v>39</v>
-      </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="2">
-        <v>45379.91666666666</v>
+        <v>45380.91666666666</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="2">
-        <v>45379.95833333334</v>
+        <v>45380.95833333334</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="2">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="2">
-        <v>45380.04166666666</v>
+        <v>45381.04166666666</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O27" t="s">
         <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="2">
-        <v>45380.08333333334</v>
+        <v>45381.08333333334</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="2">
-        <v>45380.125</v>
+        <v>45381.125</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O29" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2">
-        <v>45380.16666666666</v>
+        <v>45381.16666666666</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="2">
-        <v>45380.20833333334</v>
+        <v>45381.20833333334</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="2">
-        <v>45380.25</v>
+        <v>45381.25</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="2">
-        <v>45380.29166666666</v>
+        <v>45381.29166666666</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="2">
-        <v>45380.33333333334</v>
+        <v>45381.33333333334</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
         <v>43</v>
       </c>
-      <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" t="s">
-        <v>40</v>
-      </c>
       <c r="O34" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="2">
-        <v>45380.375</v>
+        <v>45381.375</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" t="s">
         <v>43</v>
       </c>
-      <c r="L35" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" t="s">
-        <v>39</v>
-      </c>
       <c r="O35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="2">
-        <v>45380.41666666666</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" t="s">
         <v>19</v>
       </c>
-      <c r="I36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" t="s">
-        <v>54</v>
-      </c>
       <c r="N36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="2">
-        <v>45380.45833333334</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="2">
-        <v>45380.5</v>
+        <v>45381.5</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="2">
-        <v>45380.54166666666</v>
+        <v>45381.54166666666</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="2">
-        <v>45380.58333333334</v>
+        <v>45381.58333333334</v>
       </c>
       <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" t="s">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" t="s">
-        <v>16</v>
-      </c>
       <c r="M40" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="2">
-        <v>45380.625</v>
+        <v>45381.625</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="2">
-        <v>45380.66666666666</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="2">
-        <v>45380.70833333334</v>
+        <v>45381.70833333334</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="2">
-        <v>45380.75</v>
+        <v>45381.75</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L44" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="2">
-        <v>45380.79166666666</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
         <v>43</v>
       </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" t="s">
-        <v>39</v>
-      </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L45" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="2">
-        <v>45380.83333333334</v>
+        <v>45381.83333333334</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="2">
-        <v>45380.875</v>
+        <v>45381.875</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" t="s">
         <v>41</v>
       </c>
-      <c r="F47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" t="s">
-        <v>50</v>
-      </c>
-      <c r="N47" t="s">
-        <v>39</v>
-      </c>
-      <c r="O47" t="s">
-        <v>33</v>
-      </c>
       <c r="P47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="2">
-        <v>45380.91666666666</v>
+        <v>45381.91666666666</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" t="s">
         <v>41</v>
       </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" t="s">
-        <v>41</v>
-      </c>
-      <c r="K48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" t="s">
-        <v>50</v>
-      </c>
-      <c r="N48" t="s">
-        <v>39</v>
-      </c>
-      <c r="O48" t="s">
-        <v>43</v>
-      </c>
       <c r="P48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="2">
-        <v>45380.95833333334</v>
+        <v>45381.95833333334</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" t="s">
         <v>41</v>
       </c>
-      <c r="F49" t="s">
-        <v>43</v>
-      </c>
-      <c r="L49" t="s">
-        <v>50</v>
-      </c>
-      <c r="N49" t="s">
-        <v>39</v>
-      </c>
-      <c r="O49" t="s">
-        <v>33</v>
-      </c>
       <c r="P49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="2">
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" t="s">
         <v>41</v>
       </c>
-      <c r="F50" t="s">
-        <v>43</v>
-      </c>
-      <c r="L50" t="s">
-        <v>50</v>
-      </c>
-      <c r="N50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O50" t="s">
-        <v>33</v>
-      </c>
       <c r="P50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="2">
-        <v>45381.04166666666</v>
+        <v>45382.04166666666</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="2">
-        <v>45381.08333333334</v>
+        <v>45382.08333333334</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L52" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N52" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O52" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="2">
-        <v>45381.125</v>
+        <v>45382.125</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L53" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N53" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O53" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="2">
-        <v>45381.16666666666</v>
+        <v>45382.16666666666</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L54" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O54" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="2">
-        <v>45381.20833333334</v>
+        <v>45382.20833333334</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L55" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O55" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="2">
-        <v>45381.25</v>
+        <v>45382.25</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L56" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N56" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O56" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="2">
-        <v>45381.29166666666</v>
+        <v>45382.29166666666</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O57" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="2">
-        <v>45381.33333333334</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" t="s">
+        <v>35</v>
+      </c>
+      <c r="O58" t="s">
         <v>41</v>
       </c>
-      <c r="F58" t="s">
-        <v>43</v>
-      </c>
-      <c r="L58" t="s">
-        <v>26</v>
-      </c>
-      <c r="N58" t="s">
-        <v>40</v>
-      </c>
-      <c r="O58" t="s">
-        <v>33</v>
-      </c>
       <c r="P58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="2">
-        <v>45381.375</v>
+        <v>45382.375</v>
       </c>
       <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59" t="s">
         <v>19</v>
       </c>
-      <c r="D59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="N59" t="s">
         <v>43</v>
       </c>
-      <c r="L59" t="s">
-        <v>18</v>
-      </c>
-      <c r="N59" t="s">
-        <v>39</v>
-      </c>
       <c r="O59" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.41666666666</v>
       </c>
       <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" t="s">
         <v>24</v>
       </c>
-      <c r="D60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60" t="s">
         <v>20</v>
       </c>
-      <c r="I60" t="s">
-        <v>39</v>
-      </c>
-      <c r="J60" t="s">
-        <v>43</v>
-      </c>
-      <c r="K60" t="s">
-        <v>43</v>
-      </c>
-      <c r="L60" t="s">
-        <v>25</v>
-      </c>
       <c r="N60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O60" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="2">
-        <v>45381.45833333334</v>
+        <v>45382.45833333334</v>
       </c>
       <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="s">
         <v>21</v>
       </c>
-      <c r="D61" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s">
-        <v>43</v>
-      </c>
-      <c r="L61" t="s">
-        <v>25</v>
-      </c>
       <c r="N61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O61" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="2">
-        <v>45381.5</v>
+        <v>45382.5</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="2">
-        <v>45381.54166666666</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>52</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M63" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N63" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O63" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="2">
-        <v>45381.58333333334</v>
+        <v>45382.58333333334</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L64" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M64" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O64" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="2">
-        <v>45381.625</v>
+        <v>45382.625</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" t="s">
         <v>39</v>
       </c>
-      <c r="E65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" t="s">
-        <v>43</v>
-      </c>
-      <c r="L65" t="s">
-        <v>25</v>
-      </c>
       <c r="N65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O65" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.66666666666</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
         <v>33</v>
       </c>
       <c r="F66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I66" t="s">
         <v>43</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" t="s">
-        <v>39</v>
       </c>
       <c r="J66" t="s">
         <v>33</v>
       </c>
       <c r="K66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N66" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O66" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="2">
-        <v>45381.70833333334</v>
+        <v>45382.70833333334</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O67" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="2">
-        <v>45381.75</v>
+        <v>45382.75</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L68" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O68" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="2">
-        <v>45381.79166666666</v>
+        <v>45382.79166666666</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="2">
-        <v>45381.83333333334</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="2">
-        <v>45381.875</v>
+        <v>45382.875</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N71" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="2">
-        <v>45381.91666666666</v>
+        <v>45382.91666666666</v>
       </c>
       <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" t="s">
         <v>18</v>
       </c>
-      <c r="D72" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" t="s">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G72" t="s">
-        <v>26</v>
-      </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N72" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O72" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="2">
-        <v>45381.95833333334</v>
+        <v>45382.95833333334</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O73" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="2">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L74" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O74" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="2">
-        <v>45382.04166666666</v>
+        <v>45383.04166666666</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L75" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O75" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="2">
-        <v>45382.08333333334</v>
+        <v>45383.08333333334</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L76" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O76" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="2">
-        <v>45382.125</v>
+        <v>45383.125</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L77" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O77" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="2">
-        <v>45382.16666666666</v>
+        <v>45383.16666666666</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L78" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O78" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="2">
-        <v>45382.20833333334</v>
+        <v>45383.20833333334</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L79" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O79" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="2">
-        <v>45382.25</v>
+        <v>45383.25</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L80" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O80" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="2">
-        <v>45382.29166666666</v>
+        <v>45383.29166666666</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L81" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O81" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="2">
-        <v>45382.33333333334</v>
+        <v>45383.33333333334</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L82" t="s">
         <v>18</v>
       </c>
       <c r="N82" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O82" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="2">
-        <v>45382.375</v>
+        <v>45383.375</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L83" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N83" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O83" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="2">
-        <v>45382.41666666666</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>35</v>
+      </c>
+      <c r="J84" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84" t="s">
+        <v>45</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" t="s">
         <v>43</v>
       </c>
-      <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" t="s">
-        <v>39</v>
-      </c>
-      <c r="J84" t="s">
-        <v>43</v>
-      </c>
-      <c r="K84" t="s">
-        <v>43</v>
-      </c>
-      <c r="L84" t="s">
-        <v>19</v>
-      </c>
-      <c r="N84" t="s">
-        <v>39</v>
-      </c>
       <c r="O84" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="2">
-        <v>45382.45833333334</v>
+        <v>45383.45833333334</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O85" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="2">
-        <v>45382.5</v>
+        <v>45383.5</v>
       </c>
       <c r="B86" t="s">
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O86" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="2">
-        <v>45382.54166666666</v>
+        <v>45383.54166666666</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L87" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="N87" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O87" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="2">
-        <v>45382.58333333334</v>
-      </c>
-      <c r="B88" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" t="s">
-        <v>43</v>
-      </c>
-      <c r="L88" t="s">
-        <v>25</v>
-      </c>
-      <c r="M88" t="s">
-        <v>35</v>
-      </c>
-      <c r="N88" t="s">
-        <v>42</v>
-      </c>
-      <c r="O88" t="s">
-        <v>45</v>
-      </c>
-      <c r="P88" t="s">
-        <v>43</v>
+        <v>45383.58333333334</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="2">
-        <v>45382.625</v>
-      </c>
-      <c r="B89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" t="s">
-        <v>45</v>
-      </c>
-      <c r="F89" t="s">
-        <v>43</v>
-      </c>
-      <c r="L89" t="s">
-        <v>19</v>
-      </c>
-      <c r="M89" t="s">
-        <v>35</v>
-      </c>
-      <c r="N89" t="s">
-        <v>39</v>
-      </c>
-      <c r="O89" t="s">
-        <v>45</v>
-      </c>
-      <c r="P89" t="s">
-        <v>43</v>
+        <v>45383.625</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="2">
-        <v>45382.66666666666</v>
+        <v>45383.66666666666</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>54</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L90" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="M90" t="s">
+        <v>38</v>
       </c>
       <c r="N90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="2">
-        <v>45382.70833333334</v>
-      </c>
-      <c r="B91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" t="s">
-        <v>39</v>
-      </c>
-      <c r="E91" t="s">
-        <v>45</v>
-      </c>
-      <c r="F91" t="s">
-        <v>43</v>
-      </c>
-      <c r="L91" t="s">
-        <v>25</v>
-      </c>
-      <c r="N91" t="s">
-        <v>39</v>
-      </c>
-      <c r="O91" t="s">
-        <v>44</v>
-      </c>
-      <c r="P91" t="s">
-        <v>43</v>
+        <v>45383.70833333334</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="2">
-        <v>45382.75</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" t="s">
-        <v>39</v>
-      </c>
-      <c r="E92" t="s">
-        <v>33</v>
-      </c>
-      <c r="F92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L92" t="s">
-        <v>26</v>
-      </c>
-      <c r="N92" t="s">
-        <v>39</v>
-      </c>
-      <c r="O92" t="s">
-        <v>33</v>
-      </c>
-      <c r="P92" t="s">
-        <v>43</v>
+        <v>45383.75</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="2">
-        <v>45382.79166666666</v>
+        <v>45383.79166666666</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
       </c>
       <c r="N93" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O93" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="2">
-        <v>45382.83333333334</v>
+        <v>45383.83333333334</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="2">
-        <v>45382.875</v>
+        <v>45383.875</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="2">
-        <v>45382.91666666666</v>
+        <v>45383.91666666666</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" t="s">
+        <v>45</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>35</v>
+      </c>
+      <c r="J96" t="s">
+        <v>46</v>
+      </c>
+      <c r="K96" t="s">
+        <v>45</v>
+      </c>
+      <c r="L96" t="s">
+        <v>49</v>
+      </c>
+      <c r="N96" t="s">
+        <v>44</v>
+      </c>
+      <c r="O96" t="s">
         <v>41</v>
       </c>
-      <c r="F96" t="s">
-        <v>43</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
-      <c r="I96" t="s">
-        <v>39</v>
-      </c>
-      <c r="J96" t="s">
-        <v>42</v>
-      </c>
-      <c r="K96" t="s">
-        <v>43</v>
-      </c>
-      <c r="L96" t="s">
-        <v>52</v>
-      </c>
-      <c r="N96" t="s">
-        <v>42</v>
-      </c>
-      <c r="O96" t="s">
-        <v>33</v>
-      </c>
       <c r="P96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="2">
-        <v>45382.95833333334</v>
+        <v>45383.95833333334</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="2">
-        <v>45383</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="2">
-        <v>45383.04166666666</v>
+        <v>45384.04166666666</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L99" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="2">
-        <v>45383.08333333334</v>
+        <v>45384.08333333334</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="2">
-        <v>45383.125</v>
+        <v>45384.125</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="2">
-        <v>45383.16666666666</v>
+        <v>45384.16666666666</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L102" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O102" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="2">
-        <v>45383.20833333334</v>
+        <v>45384.20833333334</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="2">
-        <v>45383.25</v>
+        <v>45384.25</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="2">
-        <v>45383.29166666666</v>
+        <v>45384.29166666666</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O105" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="2">
-        <v>45383.33333333334</v>
+        <v>45384.33333333334</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="2">
-        <v>45383.375</v>
+        <v>45384.375</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="2">
-        <v>45383.41666666666</v>
+        <v>45384.41666666666</v>
       </c>
       <c r="B108" t="s">
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G108" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J108" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O108" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="2">
-        <v>45383.45833333334</v>
+        <v>45384.45833333334</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="2">
-        <v>45383.5</v>
+        <v>45384.5</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="2">
-        <v>45383.54166666666</v>
+        <v>45384.54166666666</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G111" t="s">
         <v>27</v>
       </c>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M111" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O111" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="2">
-        <v>45383.58333333334</v>
+        <v>45384.58333333334</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="2">
-        <v>45383.625</v>
+        <v>45384.625</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="2">
-        <v>45383.66666666666</v>
+        <v>45384.66666666666</v>
       </c>
       <c r="B114" t="s">
         <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J114" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L114" t="s">
         <v>20</v>
       </c>
       <c r="M114" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="N114" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O114" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="2">
-        <v>45383.70833333334</v>
+        <v>45384.70833333334</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="2">
-        <v>45383.75</v>
+        <v>45384.75</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="2">
-        <v>45383.79166666666</v>
+        <v>45384.79166666666</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L117" t="s">
-        <v>16</v>
-      </c>
-      <c r="M117" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O117" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="2">
-        <v>45383.83333333334</v>
+        <v>45384.83333333334</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="2">
-        <v>45383.875</v>
+        <v>45384.875</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="2">
-        <v>45383.91666666666</v>
+        <v>45384.91666666666</v>
       </c>
       <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" t="s">
+        <v>45</v>
+      </c>
+      <c r="G120" t="s">
         <v>19</v>
       </c>
-      <c r="D120" t="s">
-        <v>39</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="I120" t="s">
+        <v>35</v>
+      </c>
+      <c r="J120" t="s">
+        <v>46</v>
+      </c>
+      <c r="K120" t="s">
+        <v>45</v>
+      </c>
+      <c r="L120" t="s">
+        <v>23</v>
+      </c>
+      <c r="N120" t="s">
+        <v>44</v>
+      </c>
+      <c r="O120" t="s">
         <v>41</v>
       </c>
-      <c r="F120" t="s">
-        <v>43</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
-      <c r="I120" t="s">
-        <v>39</v>
-      </c>
-      <c r="J120" t="s">
-        <v>41</v>
-      </c>
-      <c r="K120" t="s">
-        <v>43</v>
-      </c>
-      <c r="L120" t="s">
-        <v>52</v>
-      </c>
-      <c r="N120" t="s">
-        <v>42</v>
-      </c>
-      <c r="O120" t="s">
-        <v>33</v>
-      </c>
       <c r="P120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="2">
-        <v>45383.95833333334</v>
+        <v>45384.95833333334</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="2">
-        <v>45384</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="2">
-        <v>45384.04166666666</v>
+        <v>45385.04166666666</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L123" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O123" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="2">
-        <v>45384.08333333334</v>
+        <v>45385.08333333334</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="2">
-        <v>45384.125</v>
+        <v>45385.125</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="2">
-        <v>45384.16666666666</v>
+        <v>45385.16666666666</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L126" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O126" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="2">
-        <v>45384.20833333334</v>
+        <v>45385.20833333334</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="2">
-        <v>45384.25</v>
+        <v>45385.25</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="2">
-        <v>45384.29166666666</v>
+        <v>45385.29166666666</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G129" t="s">
         <v>18</v>
       </c>
       <c r="I129" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
       </c>
       <c r="N129" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O129" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="2">
-        <v>45384.33333333334</v>
+        <v>45385.33333333334</v>
       </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="2">
-        <v>45384.375</v>
+        <v>45385.375</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="2">
-        <v>45384.41666666666</v>
+        <v>45385.41666666666</v>
       </c>
       <c r="B132" t="s">
         <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" t="s">
+        <v>45</v>
+      </c>
+      <c r="G132" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" t="s">
+        <v>35</v>
+      </c>
+      <c r="J132" t="s">
+        <v>45</v>
+      </c>
+      <c r="K132" t="s">
+        <v>45</v>
+      </c>
+      <c r="L132" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" t="s">
         <v>43</v>
       </c>
-      <c r="F132" t="s">
-        <v>43</v>
-      </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
-      <c r="I132" t="s">
-        <v>39</v>
-      </c>
-      <c r="J132" t="s">
-        <v>43</v>
-      </c>
-      <c r="K132" t="s">
-        <v>43</v>
-      </c>
-      <c r="L132" t="s">
-        <v>20</v>
-      </c>
-      <c r="N132" t="s">
-        <v>39</v>
-      </c>
       <c r="O132" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="2">
-        <v>45384.45833333334</v>
+        <v>45385.45833333334</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="2">
-        <v>45384.5</v>
+        <v>45385.5</v>
       </c>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="2">
-        <v>45384.54166666666</v>
+        <v>45385.54166666666</v>
       </c>
       <c r="B135" t="s">
         <v>30</v>
       </c>
       <c r="D135" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G135" t="s">
         <v>28</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J135" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M135" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="N135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O135" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="2">
-        <v>45384.58333333334</v>
+        <v>45385.58333333334</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="2">
-        <v>45384.625</v>
+        <v>45385.625</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="2">
-        <v>45384.66666666666</v>
+        <v>45385.66666666666</v>
       </c>
       <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s">
+        <v>45</v>
+      </c>
+      <c r="G138" t="s">
         <v>27</v>
       </c>
-      <c r="C138" t="s">
-        <v>32</v>
-      </c>
-      <c r="D138" t="s">
-        <v>42</v>
-      </c>
-      <c r="E138" t="s">
-        <v>44</v>
-      </c>
-      <c r="F138" t="s">
-        <v>43</v>
-      </c>
-      <c r="G138" t="s">
-        <v>22</v>
-      </c>
       <c r="H138" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J138" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M138" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N138" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O138" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="2">
-        <v>45384.70833333334</v>
+        <v>45385.70833333334</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="2">
-        <v>45384.75</v>
+        <v>45385.75</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="2">
-        <v>45384.79166666666</v>
+        <v>45385.79166666666</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J141" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L141" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="2">
-        <v>45384.83333333334</v>
+        <v>45385.83333333334</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="2">
-        <v>45384.875</v>
+        <v>45385.875</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="2">
-        <v>45384.91666666666</v>
+        <v>45385.91666666666</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="2">
-        <v>45384.95833333334</v>
+        <v>45385.95833333334</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="2">
-        <v>45385</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="2">
-        <v>45385.04166666666</v>
+        <v>45386.04166666666</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
         <v>16</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L147" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="2">
-        <v>45385.08333333334</v>
+        <v>45386.08333333334</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="2">
-        <v>45385.125</v>
+        <v>45386.125</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="2">
-        <v>45385.16666666666</v>
+        <v>45386.16666666666</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="2">
-        <v>45385.20833333334</v>
+        <v>45386.20833333334</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="2">
-        <v>45385.25</v>
+        <v>45386.25</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="2">
-        <v>45385.29166666666</v>
+        <v>45386.29166666666</v>
       </c>
       <c r="B153" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
         <v>18</v>
       </c>
       <c r="I153" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L153" t="s">
         <v>16</v>
       </c>
       <c r="N153" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O153" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" s="2">
-        <v>45385.33333333334</v>
+        <v>45386.33333333334</v>
       </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="2">
-        <v>45385.375</v>
+        <v>45386.375</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="2">
-        <v>45385.41666666666</v>
+        <v>45386.41666666666</v>
       </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" s="2">
-        <v>45385.45833333334</v>
+        <v>45386.45833333334</v>
       </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="2">
-        <v>45385.5</v>
+        <v>45386.5</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="2">
-        <v>45385.54166666666</v>
+        <v>45386.54166666666</v>
       </c>
       <c r="B159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D159" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G159" t="s">
         <v>28</v>
       </c>
       <c r="I159" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J159" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L159" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M159" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N159" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O159" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="2">
-        <v>45385.58333333334</v>
+        <v>45386.58333333334</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="2">
-        <v>45385.625</v>
+        <v>45386.625</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="2">
-        <v>45385.66666666666</v>
+        <v>45386.66666666666</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="2">
-        <v>45385.70833333334</v>
+        <v>45386.70833333334</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="2">
-        <v>45385.75</v>
+        <v>45386.75</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="2">
-        <v>45385.79166666666</v>
+        <v>45386.79166666666</v>
       </c>
       <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="s">
+        <v>31</v>
+      </c>
+      <c r="D165" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" t="s">
+        <v>47</v>
+      </c>
+      <c r="F165" t="s">
+        <v>45</v>
+      </c>
+      <c r="G165" t="s">
         <v>21</v>
       </c>
-      <c r="C165" t="s">
+      <c r="I165" t="s">
+        <v>35</v>
+      </c>
+      <c r="J165" t="s">
+        <v>47</v>
+      </c>
+      <c r="K165" t="s">
+        <v>45</v>
+      </c>
+      <c r="L165" t="s">
+        <v>16</v>
+      </c>
+      <c r="M165" t="s">
         <v>34</v>
       </c>
-      <c r="D165" t="s">
-        <v>39</v>
-      </c>
-      <c r="E165" t="s">
-        <v>33</v>
-      </c>
-      <c r="F165" t="s">
-        <v>43</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
-      <c r="H165" t="s">
-        <v>49</v>
-      </c>
-      <c r="I165" t="s">
-        <v>39</v>
-      </c>
-      <c r="J165" t="s">
-        <v>44</v>
-      </c>
-      <c r="K165" t="s">
-        <v>43</v>
-      </c>
-      <c r="L165" t="s">
-        <v>26</v>
-      </c>
-      <c r="M165" t="s">
-        <v>56</v>
-      </c>
       <c r="N165" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O165" t="s">
         <v>33</v>
       </c>
       <c r="P165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="2">
-        <v>45385.83333333334</v>
+        <v>45386.83333333334</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="2">
-        <v>45385.875</v>
+        <v>45386.875</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="2">
-        <v>45385.91666666666</v>
+        <v>45386.91666666666</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="2">
-        <v>45385.95833333334</v>
+        <v>45386.95833333334</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="2">
-        <v>45386</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="2">
-        <v>45386.04166666666</v>
+        <v>45387.04166666666</v>
       </c>
       <c r="B171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" t="s">
+        <v>45</v>
+      </c>
+      <c r="G171" t="s">
         <v>18</v>
       </c>
-      <c r="D171" t="s">
-        <v>39</v>
-      </c>
-      <c r="E171" t="s">
-        <v>43</v>
-      </c>
-      <c r="F171" t="s">
-        <v>43</v>
-      </c>
-      <c r="G171" t="s">
-        <v>26</v>
-      </c>
       <c r="I171" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J171" t="s">
+        <v>46</v>
+      </c>
+      <c r="K171" t="s">
+        <v>45</v>
+      </c>
+      <c r="L171" t="s">
+        <v>49</v>
+      </c>
+      <c r="N171" t="s">
+        <v>35</v>
+      </c>
+      <c r="O171" t="s">
         <v>41</v>
       </c>
-      <c r="K171" t="s">
-        <v>43</v>
-      </c>
-      <c r="L171" t="s">
-        <v>52</v>
-      </c>
-      <c r="N171" t="s">
-        <v>42</v>
-      </c>
-      <c r="O171" t="s">
-        <v>44</v>
-      </c>
       <c r="P171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="2">
-        <v>45386.08333333334</v>
+        <v>45387.08333333334</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="2">
-        <v>45386.125</v>
+        <v>45387.125</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="2">
-        <v>45386.16666666666</v>
+        <v>45387.16666666666</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="2">
-        <v>45386.20833333334</v>
+        <v>45387.20833333334</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="2">
-        <v>45386.25</v>
+        <v>45387.25</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="2">
-        <v>45386.29166666666</v>
+        <v>45387.29166666666</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I177" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L177" t="s">
         <v>16</v>
       </c>
       <c r="N177" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O177" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="2">
-        <v>45386.33333333334</v>
+        <v>45387.33333333334</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" s="2">
-        <v>45386.375</v>
+        <v>45387.375</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="2">
-        <v>45386.41666666666</v>
+        <v>45387.41666666666</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="2">
-        <v>45386.45833333334</v>
+        <v>45387.45833333334</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="2">
-        <v>45386.5</v>
+        <v>45387.5</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="2">
-        <v>45386.54166666666</v>
+        <v>45387.54166666666</v>
       </c>
       <c r="B183" t="s">
         <v>30</v>
       </c>
       <c r="D183" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I183" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J183" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K183" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L183" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N183" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P183" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="2">
-        <v>45386.58333333334</v>
+        <v>45387.58333333334</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="2">
-        <v>45386.625</v>
+        <v>45387.625</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="2">
-        <v>45386.66666666666</v>
+        <v>45387.66666666666</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="2">
-        <v>45386.70833333334</v>
+        <v>45387.70833333334</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="2">
-        <v>45386.75</v>
+        <v>45387.75</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="2">
-        <v>45386.79166666666</v>
+        <v>45387.79166666666</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="H189" t="s">
+        <v>53</v>
       </c>
       <c r="I189" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L189" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N189" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="2">
-        <v>45386.83333333334</v>
+        <v>45387.83333333334</v>
       </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" s="2">
-        <v>45386.875</v>
+        <v>45387.875</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="2">
-        <v>45386.91666666666</v>
+        <v>45387.91666666666</v>
       </c>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" s="2">
-        <v>45386.95833333334</v>
+        <v>45387.95833333334</v>
       </c>
     </row>
     <row r="194" spans="1:16">
       <c r="A194" s="2">
-        <v>45387</v>
+        <v>45388</v>
       </c>
     </row>
     <row r="195" spans="1:16">
       <c r="A195" s="2">
-        <v>45387.04166666666</v>
+        <v>45388.04166666666</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G195" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I195" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J195" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L195" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N195" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O195" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:16">
       <c r="A196" s="2">
-        <v>45387.08333333334</v>
+        <v>45388.08333333334</v>
       </c>
     </row>
     <row r="197" spans="1:16">
       <c r="A197" s="2">
-        <v>45387.125</v>
+        <v>45388.125</v>
       </c>
     </row>
     <row r="198" spans="1:16">
       <c r="A198" s="2">
-        <v>45387.16666666666</v>
+        <v>45388.16666666666</v>
       </c>
     </row>
     <row r="199" spans="1:16">
       <c r="A199" s="2">
-        <v>45387.20833333334</v>
+        <v>45388.20833333334</v>
       </c>
     </row>
     <row r="200" spans="1:16">
       <c r="A200" s="2">
-        <v>45387.25</v>
+        <v>45388.25</v>
       </c>
     </row>
     <row r="201" spans="1:16">
       <c r="A201" s="2">
-        <v>45387.29166666666</v>
+        <v>45388.29166666666</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E201" t="s">
+        <v>46</v>
+      </c>
+      <c r="F201" t="s">
+        <v>45</v>
+      </c>
+      <c r="G201" t="s">
+        <v>20</v>
+      </c>
+      <c r="I201" t="s">
+        <v>35</v>
+      </c>
+      <c r="J201" t="s">
+        <v>44</v>
+      </c>
+      <c r="K201" t="s">
+        <v>45</v>
+      </c>
+      <c r="L201" t="s">
+        <v>17</v>
+      </c>
+      <c r="N201" t="s">
+        <v>44</v>
+      </c>
+      <c r="O201" t="s">
         <v>41</v>
       </c>
-      <c r="F201" t="s">
-        <v>43</v>
-      </c>
-      <c r="G201" t="s">
-        <v>19</v>
-      </c>
-      <c r="I201" t="s">
-        <v>39</v>
-      </c>
-      <c r="J201" t="s">
-        <v>41</v>
-      </c>
-      <c r="K201" t="s">
-        <v>43</v>
-      </c>
-      <c r="L201" t="s">
-        <v>16</v>
-      </c>
-      <c r="N201" t="s">
-        <v>42</v>
-      </c>
-      <c r="O201" t="s">
-        <v>33</v>
-      </c>
       <c r="P201" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:16">
       <c r="A202" s="2">
-        <v>45387.33333333334</v>
+        <v>45388.33333333334</v>
       </c>
     </row>
     <row r="203" spans="1:16">
       <c r="A203" s="2">
-        <v>45387.375</v>
+        <v>45388.375</v>
       </c>
     </row>
     <row r="204" spans="1:16">
       <c r="A204" s="2">
-        <v>45387.41666666666</v>
+        <v>45388.41666666666</v>
       </c>
     </row>
     <row r="205" spans="1:16">
       <c r="A205" s="2">
-        <v>45387.45833333334</v>
+        <v>45388.45833333334</v>
       </c>
     </row>
     <row r="206" spans="1:16">
       <c r="A206" s="2">
-        <v>45387.5</v>
+        <v>45388.5</v>
       </c>
     </row>
     <row r="207" spans="1:16">
       <c r="A207" s="2">
-        <v>45387.54166666666</v>
+        <v>45388.54166666666</v>
       </c>
       <c r="B207" t="s">
         <v>30</v>
       </c>
-      <c r="C207" t="s">
-        <v>32</v>
-      </c>
       <c r="D207" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E207" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
         <v>28</v>
       </c>
       <c r="I207" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J207" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L207" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N207" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O207" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:16">
       <c r="A208" s="2">
-        <v>45387.58333333334</v>
+        <v>45388.58333333334</v>
       </c>
     </row>
     <row r="209" spans="1:16">
       <c r="A209" s="2">
-        <v>45387.625</v>
+        <v>45388.625</v>
       </c>
     </row>
     <row r="210" spans="1:16">
       <c r="A210" s="2">
-        <v>45387.66666666666</v>
+        <v>45388.66666666666</v>
       </c>
     </row>
     <row r="211" spans="1:16">
       <c r="A211" s="2">
-        <v>45387.70833333334</v>
+        <v>45388.70833333334</v>
       </c>
     </row>
     <row r="212" spans="1:16">
       <c r="A212" s="2">
-        <v>45387.75</v>
+        <v>45388.75</v>
       </c>
     </row>
     <row r="213" spans="1:16">
       <c r="A213" s="2">
-        <v>45387.79166666666</v>
+        <v>45388.79166666666</v>
       </c>
       <c r="B213" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C213" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D213" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F213" t="s">
+        <v>45</v>
+      </c>
+      <c r="G213" t="s">
+        <v>21</v>
+      </c>
+      <c r="H213" t="s">
+        <v>55</v>
+      </c>
+      <c r="I213" t="s">
         <v>43</v>
       </c>
-      <c r="G213" t="s">
-        <v>20</v>
-      </c>
-      <c r="H213" t="s">
-        <v>32</v>
-      </c>
-      <c r="I213" t="s">
-        <v>39</v>
-      </c>
       <c r="J213" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L213" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M213" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N213" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O213" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="P213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:16">
       <c r="A214" s="2">
-        <v>45387.83333333334</v>
+        <v>45388.83333333334</v>
       </c>
     </row>
     <row r="215" spans="1:16">
       <c r="A215" s="2">
-        <v>45387.875</v>
+        <v>45388.875</v>
       </c>
     </row>
     <row r="216" spans="1:16">
       <c r="A216" s="2">
-        <v>45387.91666666666</v>
+        <v>45388.91666666666</v>
       </c>
     </row>
     <row r="217" spans="1:16">
       <c r="A217" s="2">
-        <v>45387.95833333334</v>
+        <v>45388.95833333334</v>
       </c>
     </row>
     <row r="218" spans="1:16">
       <c r="A218" s="2">
-        <v>45388</v>
+        <v>45389</v>
       </c>
     </row>
     <row r="219" spans="1:16">
       <c r="A219" s="2">
-        <v>45388.04166666666</v>
+        <v>45389.04166666666</v>
       </c>
       <c r="B219" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D219" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I219" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J219" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K219" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L219" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N219" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O219" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P219" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:16">
       <c r="A220" s="2">
-        <v>45388.08333333334</v>
+        <v>45389.08333333334</v>
       </c>
     </row>
     <row r="221" spans="1:16">
       <c r="A221" s="2">
-        <v>45388.125</v>
+        <v>45389.125</v>
       </c>
     </row>
     <row r="222" spans="1:16">
       <c r="A222" s="2">
-        <v>45388.16666666666</v>
+        <v>45389.16666666666</v>
       </c>
     </row>
     <row r="223" spans="1:16">
       <c r="A223" s="2">
-        <v>45388.20833333334</v>
+        <v>45389.20833333334</v>
       </c>
     </row>
     <row r="224" spans="1:16">
       <c r="A224" s="2">
-        <v>45388.25</v>
+        <v>45389.25</v>
       </c>
     </row>
     <row r="225" spans="1:16">
       <c r="A225" s="2">
-        <v>45388.29166666666</v>
+        <v>45389.29166666666</v>
       </c>
       <c r="B225" t="s">
         <v>19</v>
       </c>
       <c r="D225" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G225" t="s">
         <v>19</v>
       </c>
       <c r="I225" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J225" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K225" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L225" t="s">
         <v>16</v>
       </c>
       <c r="N225" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O225" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P225" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:16">
       <c r="A226" s="2">
-        <v>45388.33333333334</v>
+        <v>45389.33333333334</v>
       </c>
     </row>
     <row r="227" spans="1:16">
       <c r="A227" s="2">
-        <v>45388.375</v>
+        <v>45389.375</v>
       </c>
     </row>
     <row r="228" spans="1:16">
       <c r="A228" s="2">
-        <v>45388.41666666666</v>
+        <v>45389.41666666666</v>
       </c>
     </row>
     <row r="229" spans="1:16">
       <c r="A229" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.45833333334</v>
       </c>
     </row>
     <row r="230" spans="1:16">
       <c r="A230" s="2">
-        <v>45388.5</v>
+        <v>45389.5</v>
       </c>
     </row>
     <row r="231" spans="1:16">
       <c r="A231" s="2">
-        <v>45388.54166666666</v>
+        <v>45389.54166666666</v>
       </c>
       <c r="B231" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C231" t="s">
+        <v>31</v>
       </c>
       <c r="D231" t="s">
+        <v>44</v>
+      </c>
+      <c r="E231" t="s">
+        <v>47</v>
+      </c>
+      <c r="F231" t="s">
+        <v>45</v>
+      </c>
+      <c r="G231" t="s">
+        <v>25</v>
+      </c>
+      <c r="H231" t="s">
         <v>39</v>
       </c>
-      <c r="E231" t="s">
-        <v>44</v>
-      </c>
-      <c r="F231" t="s">
-        <v>43</v>
-      </c>
-      <c r="G231" t="s">
-        <v>28</v>
-      </c>
       <c r="I231" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J231" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K231" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L231" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="M231" t="s">
+        <v>66</v>
       </c>
       <c r="N231" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O231" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P231" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:16">
       <c r="A232" s="2">
-        <v>45388.58333333334</v>
+        <v>45389.58333333334</v>
       </c>
     </row>
     <row r="233" spans="1:16">
       <c r="A233" s="2">
-        <v>45388.625</v>
+        <v>45389.625</v>
       </c>
     </row>
     <row r="234" spans="1:16">
       <c r="A234" s="2">
-        <v>45388.66666666666</v>
+        <v>45389.66666666666</v>
       </c>
     </row>
     <row r="235" spans="1:16">
       <c r="A235" s="2">
-        <v>45388.70833333334</v>
+        <v>45389.70833333334</v>
       </c>
     </row>
     <row r="236" spans="1:16">
       <c r="A236" s="2">
-        <v>45388.75</v>
+        <v>45389.75</v>
       </c>
     </row>
     <row r="237" spans="1:16">
       <c r="A237" s="2">
-        <v>45388.79166666666</v>
+        <v>45389.79166666666</v>
       </c>
       <c r="B237" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C237" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D237" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E237" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G237" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I237" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J237" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K237" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L237" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M237" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N237" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O237" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P237" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:16">
       <c r="A238" s="2">
-        <v>45388.83333333334</v>
+        <v>45389.83333333334</v>
       </c>
     </row>
     <row r="239" spans="1:16">
       <c r="A239" s="2">
-        <v>45388.875</v>
+        <v>45389.875</v>
       </c>
     </row>
     <row r="240" spans="1:16">
       <c r="A240" s="2">
-        <v>45388.91666666666</v>
+        <v>45389.91666666666</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="2">
-        <v>45388.95833333334</v>
+        <v>45389.95833333334</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="2">
-        <v>45389</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="2">
-        <v>45389.04166666666</v>
+        <v>45390.04166666666</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="2">
-        <v>45389.08333333334</v>
+        <v>45390.08333333334</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="2">
-        <v>45389.125</v>
+        <v>45390.125</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="2">
-        <v>45389.16666666666</v>
+        <v>45390.16666666666</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="2">
-        <v>45389.20833333334</v>
+        <v>45390.20833333334</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="2">
-        <v>45389.25</v>
+        <v>45390.25</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="2">
-        <v>45389.29166666666</v>
+        <v>45390.29166666666</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="2">
-        <v>45389.33333333334</v>
+        <v>45390.33333333334</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="2">
-        <v>45389.375</v>
+        <v>45390.375</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="2">
-        <v>45389.41666666666</v>
+        <v>45390.41666666666</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="2">
-        <v>45389.45833333334</v>
+        <v>45390.45833333334</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="2">
-        <v>45389.5</v>
+        <v>45390.5</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="2">
-        <v>45389.54166666666</v>
+        <v>45390.54166666666</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="2">
-        <v>45389.58333333334</v>
+        <v>45390.58333333334</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="2">
-        <v>45389.625</v>
+        <v>45390.625</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="2">
-        <v>45389.66666666666</v>
+        <v>45390.66666666666</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="2">
-        <v>45389.70833333334</v>
+        <v>45390.70833333334</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="2">
-        <v>45389.75</v>
+        <v>45390.75</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="2">
-        <v>45389.79166666666</v>
+        <v>45390.79166666666</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="2">
-        <v>45389.83333333334</v>
+        <v>45390.83333333334</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="2">
-        <v>45389.875</v>
+        <v>45390.875</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="2">
-        <v>45389.91666666666</v>
+        <v>45390.91666666666</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="2">
-        <v>45389.95833333334</v>
+        <v>45390.95833333334</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="2">
-        <v>45390</v>
+        <v>45391</v>
       </c>
     </row>
   </sheetData>
